--- a/medicine/Enfance/La_Petite_Fadette/La_Petite_Fadette.xlsx
+++ b/medicine/Enfance/La_Petite_Fadette/La_Petite_Fadette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Petite Fadette est un roman de la romancière George Sand, paru en 1849. 
@@ -514,7 +526,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Landry Barbeau, amoureux de Fadette, jumeau de Sylvinet (il est le plus fort et le plus courageux des frères)
 Sylvinet Barbeau, jumeau de Landry, il est le plus affectueux des frères
@@ -546,7 +560,9 @@
           <t>Résumé du livre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour des raisons financières, le père Barbeau, profitant d'une offre de son voisin de prendre l'un de ses jumeaux à son service, décide qu'il est temps de les séparer. La nouvelle chagrine les jumeaux, alors âgés de quatorze ans. Landry se dévoue pour être placé chez le père Caillaud à la Priche et part secrètement le matin. Le soir, son frère, Sylvinet, va le voir, triste de ne pas avoir été prévenu. Il éprouve encore plus de tristesse lorsque son frère ne le serre pas dans ses bras lors de leurs retrouvailles, alors qu'il en avait envie mais ne voulait pas paraître ridicule et sentimental devant ses nouveaux hôtes.
 Le temps passe. Landry s’accoutume à sa nouvelle situation, mais l’ennui et le chagrin de Sylvinet augmentent, si bien qu’un jour, il s’enfuit et ne revient pas. Alarmé, Landry part à sa recherche, en vain. 
@@ -589,9 +605,11 @@
           <t>Histoire éditoriale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Petite Fadette paraît en deux volumes à Paris chez les libraires-éditeurs Michel Lévy frères, en 1849[1]. En 1851 paraît une réédition en un volume illustrée par Tony Johannot et Maurice Sand, à Paris, également aux éditions Michel Lévy frères[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Petite Fadette paraît en deux volumes à Paris chez les libraires-éditeurs Michel Lévy frères, en 1849. En 1851 paraît une réédition en un volume illustrée par Tony Johannot et Maurice Sand, à Paris, également aux éditions Michel Lévy frères.
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Thème</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thèmes du roman sont la gémellité, la vie à la campagne, l'amour, les divergences sociales et aussi la sorcellerie. Fadet, Fadette sont des mots qui viennent des parlers du Croissant, dérivés du mot fée, eux-mêmes de fada en occitan, qui provient du latin Fata.
 </t>
@@ -651,9 +671,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant la plus grande partie du XXe siècle, La Petite Fadette demeure l'un des romans les plus connus de George Sand, tandis qu'une grande partie de ses autres œuvres tombe dans l'oubli. Fin 1975, à l'approche du centenaire de la mort de l'autrice (1876-1976), Georges Lubin, spécialiste de Sand, constate que La Petite Fadette, tout comme ses autres romans champêtres principaux, La Mare au diable et François le Champi, est abondamment et régulièrement réédité, mais il déplore que le reste de ses livres ne le soit pas[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la plus grande partie du XXe siècle, La Petite Fadette demeure l'un des romans les plus connus de George Sand, tandis qu'une grande partie de ses autres œuvres tombe dans l'oubli. Fin 1975, à l'approche du centenaire de la mort de l'autrice (1876-1976), Georges Lubin, spécialiste de Sand, constate que La Petite Fadette, tout comme ses autres romans champêtres principaux, La Mare au diable et François le Champi, est abondamment et régulièrement réédité, mais il déplore que le reste de ses livres ne le soit pas.
 </t>
         </is>
       </c>
@@ -684,11 +706,51 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adaptation au théâtre
-George Sand elle-même adapte La Petite Fadette sous la forme d'un opéra comique en trois actes et cinq tableaux, sur une musique de Théodore Semet et une mise en scène de M. Mocker. L'opéra est créé à Paris au théâtre de l'opéra comique le 15 septembre 1869, puis publié à Paris aux éditions Michel Lévy frères la même année[4].
-Adaptations à l'écran
-En 1915, le roman est adapté en film muet américain, Fanchon the Cricket, avec Mary Pickford dans le rôle de la Petite Fadette. Les rôles de Landry et de Sylvinet sont amalgamés en un seul personnage, joué par Jack Standing.
-En 1963, Jean-Paul Carrère adapte le roman en téléfilm, avec Elisabeth Wiener et Alain Franco dans les rôles principaux[5].
+          <t>Adaptation au théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Sand elle-même adapte La Petite Fadette sous la forme d'un opéra comique en trois actes et cinq tableaux, sur une musique de Théodore Semet et une mise en scène de M. Mocker. L'opéra est créé à Paris au théâtre de l'opéra comique le 15 septembre 1869, puis publié à Paris aux éditions Michel Lévy frères la même année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Petite_Fadette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Fadette</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adaptations à l'écran</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1915, le roman est adapté en film muet américain, Fanchon the Cricket, avec Mary Pickford dans le rôle de la Petite Fadette. Les rôles de Landry et de Sylvinet sont amalgamés en un seul personnage, joué par Jack Standing.
+En 1963, Jean-Paul Carrère adapte le roman en téléfilm, avec Elisabeth Wiener et Alain Franco dans les rôles principaux.
 En 1979, le roman est adapté en un téléfilm réalisé par Lazare Iglesis, avec Françoise Dorner, Patrick Raynal et Jean-Michel Dupuis dans les rôles principaux.
 En 2004, un nouveau téléfilm librement tiré du roman est réalisé par Michaëla Watteaux, avec Mélanie Bernier, Jérémie Renier et Maximilien Muller.</t>
         </is>
